--- a/Excel-XLSX/UN-CHL.xlsx
+++ b/Excel-XLSX/UN-CHL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="967">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>wAp12X</t>
+    <t>1GsITp</t>
   </si>
   <si>
     <t>1969</t>
@@ -2808,21 +2808,18 @@
     <t>646</t>
   </si>
   <si>
-    <t>1691</t>
-  </si>
-  <si>
     <t>647</t>
   </si>
   <si>
     <t>648</t>
   </si>
   <si>
+    <t>3224</t>
+  </si>
+  <si>
     <t>649</t>
   </si>
   <si>
-    <t>2865</t>
-  </si>
-  <si>
     <t>650</t>
   </si>
   <si>
@@ -2859,6 +2856,15 @@
     <t>661</t>
   </si>
   <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
     <t>662</t>
   </si>
   <si>
@@ -2886,6 +2892,9 @@
     <t>670</t>
   </si>
   <si>
+    <t>1688</t>
+  </si>
+  <si>
     <t>671</t>
   </si>
   <si>
@@ -2904,10 +2913,10 @@
     <t>676</t>
   </si>
   <si>
-    <t>8413</t>
-  </si>
-  <si>
-    <t>524227</t>
+    <t>8895</t>
+  </si>
+  <si>
+    <t>523727</t>
   </si>
 </sst>
 </file>
@@ -46997,10 +47006,10 @@
         <v>31</v>
       </c>
       <c r="N643" s="2" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="O643" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P643" s="2" t="s">
         <v>33</v>
@@ -47245,16 +47254,16 @@
         <v>925</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="G647" s="1" t="s">
-        <v>30</v>
+        <v>529</v>
       </c>
       <c r="H647" s="1" t="s">
-        <v>31</v>
+        <v>530</v>
       </c>
       <c r="I647" s="1" t="s">
-        <v>31</v>
+        <v>531</v>
       </c>
       <c r="J647" s="2" t="s">
         <v>29</v>
@@ -47269,10 +47278,10 @@
         <v>31</v>
       </c>
       <c r="N647" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O647" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="P647" s="2" t="s">
         <v>33</v>
@@ -47287,7 +47296,7 @@
         <v>33</v>
       </c>
       <c r="T647" s="2" t="s">
-        <v>930</v>
+        <v>33</v>
       </c>
       <c r="U647" s="1" t="s">
         <v>34</v>
@@ -47307,22 +47316,22 @@
         <v>22</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G648" s="1" t="s">
-        <v>529</v>
+        <v>272</v>
       </c>
       <c r="H648" s="1" t="s">
-        <v>530</v>
+        <v>273</v>
       </c>
       <c r="I648" s="1" t="s">
-        <v>531</v>
+        <v>273</v>
       </c>
       <c r="J648" s="2" t="s">
         <v>29</v>
@@ -47337,10 +47346,10 @@
         <v>31</v>
       </c>
       <c r="N648" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="O648" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="P648" s="2" t="s">
         <v>33</v>
@@ -47375,22 +47384,22 @@
         <v>22</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E649" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="G649" s="1" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="H649" s="1" t="s">
-        <v>273</v>
+        <v>120</v>
       </c>
       <c r="I649" s="1" t="s">
-        <v>273</v>
+        <v>120</v>
       </c>
       <c r="J649" s="2" t="s">
         <v>29</v>
@@ -47405,10 +47414,10 @@
         <v>31</v>
       </c>
       <c r="N649" s="2" t="s">
-        <v>46</v>
+        <v>851</v>
       </c>
       <c r="O649" s="2" t="s">
-        <v>33</v>
+        <v>932</v>
       </c>
       <c r="P649" s="2" t="s">
         <v>33</v>
@@ -47449,16 +47458,16 @@
         <v>925</v>
       </c>
       <c r="F650" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="G650" s="1" t="s">
-        <v>119</v>
+        <v>373</v>
       </c>
       <c r="H650" s="1" t="s">
-        <v>120</v>
+        <v>374</v>
       </c>
       <c r="I650" s="1" t="s">
-        <v>120</v>
+        <v>375</v>
       </c>
       <c r="J650" s="2" t="s">
         <v>29</v>
@@ -47473,10 +47482,10 @@
         <v>31</v>
       </c>
       <c r="N650" s="2" t="s">
-        <v>851</v>
+        <v>46</v>
       </c>
       <c r="O650" s="2" t="s">
-        <v>934</v>
+        <v>33</v>
       </c>
       <c r="P650" s="2" t="s">
         <v>33</v>
@@ -47511,22 +47520,22 @@
         <v>22</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F651" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="G651" s="1" t="s">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="H651" s="1" t="s">
-        <v>374</v>
+        <v>124</v>
       </c>
       <c r="I651" s="1" t="s">
-        <v>375</v>
+        <v>124</v>
       </c>
       <c r="J651" s="2" t="s">
         <v>29</v>
@@ -47541,10 +47550,10 @@
         <v>31</v>
       </c>
       <c r="N651" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="O651" s="2" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="P651" s="2" t="s">
         <v>33</v>
@@ -47579,22 +47588,22 @@
         <v>22</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E652" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F652" s="2" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="G652" s="1" t="s">
-        <v>123</v>
+        <v>539</v>
       </c>
       <c r="H652" s="1" t="s">
-        <v>124</v>
+        <v>540</v>
       </c>
       <c r="I652" s="1" t="s">
-        <v>124</v>
+        <v>540</v>
       </c>
       <c r="J652" s="2" t="s">
         <v>29</v>
@@ -47609,10 +47618,10 @@
         <v>31</v>
       </c>
       <c r="N652" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="O652" s="2" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="P652" s="2" t="s">
         <v>33</v>
@@ -47647,22 +47656,22 @@
         <v>22</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E653" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F653" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G653" s="1" t="s">
-        <v>539</v>
+        <v>349</v>
       </c>
       <c r="H653" s="1" t="s">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="I653" s="1" t="s">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="J653" s="2" t="s">
         <v>29</v>
@@ -47677,10 +47686,10 @@
         <v>31</v>
       </c>
       <c r="N653" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="O653" s="2" t="s">
-        <v>207</v>
+        <v>396</v>
       </c>
       <c r="P653" s="2" t="s">
         <v>33</v>
@@ -47715,22 +47724,22 @@
         <v>22</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E654" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G654" s="1" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="H654" s="1" t="s">
-        <v>350</v>
+        <v>197</v>
       </c>
       <c r="I654" s="1" t="s">
-        <v>350</v>
+        <v>198</v>
       </c>
       <c r="J654" s="2" t="s">
         <v>29</v>
@@ -47745,10 +47754,10 @@
         <v>31</v>
       </c>
       <c r="N654" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O654" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="P654" s="2" t="s">
         <v>33</v>
@@ -47783,22 +47792,22 @@
         <v>22</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E655" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F655" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G655" s="1" t="s">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="H655" s="1" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="I655" s="1" t="s">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="J655" s="2" t="s">
         <v>29</v>
@@ -47813,10 +47822,10 @@
         <v>31</v>
       </c>
       <c r="N655" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="O655" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P655" s="2" t="s">
         <v>33</v>
@@ -47851,22 +47860,22 @@
         <v>22</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E656" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F656" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G656" s="1" t="s">
-        <v>403</v>
+        <v>699</v>
       </c>
       <c r="H656" s="1" t="s">
-        <v>404</v>
+        <v>700</v>
       </c>
       <c r="I656" s="1" t="s">
-        <v>404</v>
+        <v>701</v>
       </c>
       <c r="J656" s="2" t="s">
         <v>29</v>
@@ -47884,7 +47893,7 @@
         <v>33</v>
       </c>
       <c r="O656" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P656" s="2" t="s">
         <v>33</v>
@@ -47919,22 +47928,22 @@
         <v>22</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G657" s="1" t="s">
-        <v>699</v>
+        <v>379</v>
       </c>
       <c r="H657" s="1" t="s">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="I657" s="1" t="s">
-        <v>701</v>
+        <v>381</v>
       </c>
       <c r="J657" s="2" t="s">
         <v>29</v>
@@ -47952,7 +47961,7 @@
         <v>33</v>
       </c>
       <c r="O657" s="2" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="P657" s="2" t="s">
         <v>33</v>
@@ -47987,22 +47996,22 @@
         <v>22</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F658" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G658" s="1" t="s">
-        <v>379</v>
+        <v>545</v>
       </c>
       <c r="H658" s="1" t="s">
-        <v>380</v>
+        <v>546</v>
       </c>
       <c r="I658" s="1" t="s">
-        <v>381</v>
+        <v>547</v>
       </c>
       <c r="J658" s="2" t="s">
         <v>29</v>
@@ -48017,10 +48026,10 @@
         <v>31</v>
       </c>
       <c r="N658" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O658" s="2" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="P658" s="2" t="s">
         <v>33</v>
@@ -48055,22 +48064,22 @@
         <v>22</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F659" s="2" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="G659" s="1" t="s">
-        <v>545</v>
+        <v>135</v>
       </c>
       <c r="H659" s="1" t="s">
-        <v>546</v>
+        <v>136</v>
       </c>
       <c r="I659" s="1" t="s">
-        <v>547</v>
+        <v>136</v>
       </c>
       <c r="J659" s="2" t="s">
         <v>29</v>
@@ -48085,10 +48094,10 @@
         <v>31</v>
       </c>
       <c r="N659" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O659" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="P659" s="2" t="s">
         <v>33</v>
@@ -48123,22 +48132,22 @@
         <v>22</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E660" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F660" s="2" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="G660" s="1" t="s">
-        <v>135</v>
+        <v>578</v>
       </c>
       <c r="H660" s="1" t="s">
-        <v>136</v>
+        <v>579</v>
       </c>
       <c r="I660" s="1" t="s">
-        <v>136</v>
+        <v>579</v>
       </c>
       <c r="J660" s="2" t="s">
         <v>29</v>
@@ -48153,10 +48162,10 @@
         <v>31</v>
       </c>
       <c r="N660" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O660" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="P660" s="2" t="s">
         <v>33</v>
@@ -48191,22 +48200,22 @@
         <v>22</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E661" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F661" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G661" s="1" t="s">
-        <v>578</v>
+        <v>662</v>
       </c>
       <c r="H661" s="1" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="I661" s="1" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="J661" s="2" t="s">
         <v>29</v>
@@ -48221,10 +48230,10 @@
         <v>31</v>
       </c>
       <c r="N661" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O661" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="O661" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P661" s="2" t="s">
         <v>33</v>
@@ -48259,22 +48268,22 @@
         <v>22</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E662" s="2" t="s">
         <v>925</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G662" s="1" t="s">
-        <v>662</v>
+        <v>946</v>
       </c>
       <c r="H662" s="1" t="s">
-        <v>663</v>
+        <v>947</v>
       </c>
       <c r="I662" s="1" t="s">
-        <v>663</v>
+        <v>948</v>
       </c>
       <c r="J662" s="2" t="s">
         <v>29</v>
@@ -48292,7 +48301,7 @@
         <v>33</v>
       </c>
       <c r="O662" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="P662" s="2" t="s">
         <v>33</v>
@@ -48327,7 +48336,7 @@
         <v>22</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E663" s="2" t="s">
         <v>925</v>
@@ -48395,7 +48404,7 @@
         <v>22</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E664" s="2" t="s">
         <v>925</v>
@@ -48463,7 +48472,7 @@
         <v>22</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E665" s="2" t="s">
         <v>925</v>
@@ -48531,7 +48540,7 @@
         <v>22</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>925</v>
@@ -48564,7 +48573,7 @@
         <v>257</v>
       </c>
       <c r="O666" s="2" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="P666" s="2" t="s">
         <v>33</v>
@@ -48599,7 +48608,7 @@
         <v>22</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="E667" s="2" t="s">
         <v>925</v>
@@ -48632,7 +48641,7 @@
         <v>46</v>
       </c>
       <c r="O667" s="2" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="P667" s="2" t="s">
         <v>33</v>
@@ -48667,7 +48676,7 @@
         <v>22</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>925</v>
@@ -48735,7 +48744,7 @@
         <v>22</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E669" s="2" t="s">
         <v>925</v>
@@ -48803,7 +48812,7 @@
         <v>22</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E670" s="2" t="s">
         <v>925</v>
@@ -48871,7 +48880,7 @@
         <v>22</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E671" s="2" t="s">
         <v>925</v>
@@ -48916,7 +48925,7 @@
         <v>33</v>
       </c>
       <c r="S671" s="2" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="T671" s="2" t="s">
         <v>33</v>
@@ -48939,7 +48948,7 @@
         <v>22</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E672" s="2" t="s">
         <v>925</v>
@@ -49007,7 +49016,7 @@
         <v>22</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E673" s="2" t="s">
         <v>925</v>
@@ -49075,7 +49084,7 @@
         <v>22</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E674" s="2" t="s">
         <v>925</v>
@@ -49105,10 +49114,10 @@
         <v>31</v>
       </c>
       <c r="N674" s="2" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="O674" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="P674" s="2" t="s">
         <v>33</v>
@@ -49143,7 +49152,7 @@
         <v>22</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E675" s="2" t="s">
         <v>925</v>
@@ -49211,7 +49220,7 @@
         <v>22</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>925</v>
@@ -49279,7 +49288,7 @@
         <v>22</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E677" s="2" t="s">
         <v>925</v>
@@ -49309,10 +49318,10 @@
         <v>31</v>
       </c>
       <c r="N677" s="2" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O677" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="P677" s="2" t="s">
         <v>33</v>
@@ -49330,7 +49339,7 @@
         <v>33</v>
       </c>
       <c r="U677" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="V677" s="2" t="s">
         <v>33</v>
